--- a/xlsx/edges/rider_takes_part_in_race.xlsx
+++ b/xlsx/edges/rider_takes_part_in_race.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Documents\Dodo\M2\S2\DBMS\projet\graph\csv\xlsx\edges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Documents\Dodo\M2\S2\DBMS\projet\graph\data\xlsx\edges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C1307-6DDF-4E5C-A26A-696CD2B2795B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30673735-227A-4693-AC50-151B8960F11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32280" yWindow="2580" windowWidth="28800" windowHeight="15435" xr2:uid="{F336B1DF-64FC-4132-94B3-5A5E9EF38B0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F336B1DF-64FC-4132-94B3-5A5E9EF38B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="3">
   <si>
-    <t xml:space="preserve">CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = </t>
-  </si>
-  <si>
     <t>);</t>
   </si>
   <si>
     <t xml:space="preserve">) TO (SELECT FROM Race WHERE RACE_ID = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = </t>
   </si>
 </sst>
 </file>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD1AD6-3898-493D-8ED6-A3413D946E1D}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C198"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,3368 +408,3368 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B34">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B37">
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B43">
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B44">
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B46">
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B47">
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B49">
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B52">
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B54">
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B61">
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62">
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63">
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B65">
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B66">
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B67">
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B69">
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72">
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B75">
         <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B76">
         <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B77">
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B78">
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B79">
         <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B80">
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B81">
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B82">
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B83">
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B84">
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B85">
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B86">
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B87">
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B88">
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B89">
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B90">
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B91">
         <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B92">
         <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B93">
         <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B94">
         <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B95">
         <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B96">
         <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B97">
         <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B98">
         <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B99">
         <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B100">
         <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B101">
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B102">
         <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B103">
         <v>114</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B104">
         <v>115</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B105">
         <v>116</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B106">
         <v>117</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B107">
         <v>118</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B108">
         <v>119</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B109">
         <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B110">
         <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B111">
         <v>123</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B112">
         <v>124</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B113">
         <v>125</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B114">
         <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B115">
         <v>127</v>
       </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B116">
         <v>128</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B117">
         <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B118">
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B119">
         <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B120">
         <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B121">
         <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B122">
         <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B123">
         <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B124">
         <v>137</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B125">
         <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B126">
         <v>139</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B127">
         <v>141</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128">
         <v>142</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129">
         <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B130">
         <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B131">
         <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B132">
         <v>146</v>
       </c>
       <c r="C132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B133">
         <v>147</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B134">
         <v>148</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B135">
         <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B136">
         <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B137">
         <v>152</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B138">
         <v>153</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B139">
         <v>154</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B140">
         <v>155</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B141">
         <v>156</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B142">
         <v>157</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B143">
         <v>158</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B144">
         <v>159</v>
       </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B145">
         <v>161</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B146">
         <v>162</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B147">
         <v>163</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B148">
         <v>164</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B149">
         <v>165</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B150">
         <v>166</v>
       </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B151">
         <v>167</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B152">
         <v>168</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B153">
         <v>169</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B154">
         <v>171</v>
       </c>
       <c r="C154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B155">
         <v>172</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B156">
         <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B157">
         <v>174</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B158">
         <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B159">
         <v>176</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B160">
         <v>177</v>
       </c>
       <c r="C160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B161">
         <v>178</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B162">
         <v>179</v>
       </c>
       <c r="C162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B163">
         <v>181</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B164">
         <v>182</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B165">
         <v>183</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B166">
         <v>184</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B167">
         <v>185</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B168">
         <v>186</v>
       </c>
       <c r="C168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B169">
         <v>187</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B170">
         <v>188</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B171">
         <v>189</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B172">
         <v>191</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B173">
         <v>192</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B174">
         <v>193</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B175">
         <v>194</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B176">
         <v>195</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B177">
         <v>196</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B178">
         <v>197</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B179">
         <v>198</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B180">
         <v>199</v>
       </c>
       <c r="C180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B181">
         <v>201</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B182">
         <v>202</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B183">
         <v>203</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B184">
         <v>204</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B185">
         <v>205</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B186">
         <v>206</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B187">
         <v>207</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B188">
         <v>208</v>
       </c>
       <c r="C188" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B189">
         <v>209</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B190">
         <v>211</v>
       </c>
       <c r="C190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B191">
         <v>212</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B192">
         <v>213</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B193">
         <v>214</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B194">
         <v>215</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B195">
         <v>216</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B196">
         <v>217</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B197">
         <v>218</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B198">
         <v>219</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
         <v>1</v>
       </c>
       <c r="E198" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1236326A-CFFD-4711-99D8-55C5970D97AD}">
   <dimension ref="A1:A198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A198" sqref="A1:A198"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="Q163" sqref="Q163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,1189 +3790,1189 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A1:$E1)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 1) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 1) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A2:$E2)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 2) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 2) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A3:$E3)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 3) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 3) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A4:$E4)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 4) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 4) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A5:$E5)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 5) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 5) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A6:$E6)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 6) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 6) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A7:$E7)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 7) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 7) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A8:$E8)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 8) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 8) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A9:$E9)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 9) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 9) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A10:$E10)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 11) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 11) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A11:$E11)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 12) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 12) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A12:$E12)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 13) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 13) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A13:$E13)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 14) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 14) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A14:$E14)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 15) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 15) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A15:$E15)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 16) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 16) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A16:$E16)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 17) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 17) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A17:$E17)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 18) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 18) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A18:$E18)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 19) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 19) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A19:$E19)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 21) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 21) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A20:$E20)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 22) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 22) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A21:$E21)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 23) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 23) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A22:$E22)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 24) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 24) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A23:$E23)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 25) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 25) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A24:$E24)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 26) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 26) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A25:$E25)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 27) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 27) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A26:$E26)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 28) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 28) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A27:$E27)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 29) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 29) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A28:$E28)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 31) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 31) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A29:$E29)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 32) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 32) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A30:$E30)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 33) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 33) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A31:$E31)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 34) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 34) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A32:$E32)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 35) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 35) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A33:$E33)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 36) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 36) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A34:$E34)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 37) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 37) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A35:$E35)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 38) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 38) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A36:$E36)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 39) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 39) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A37:$E37)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 41) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 41) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A38:$E38)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 42) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 42) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A39:$E39)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 43) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 43) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A40:$E40)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 44) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 44) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A41:$E41)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 45) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 45) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A42:$E42)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 46) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 46) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A43:$E43)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 47) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 47) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A44:$E44)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 48) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 48) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A45:$E45)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 49) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 49) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A46:$E46)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 51) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 51) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A47:$E47)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 52) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 52) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A48:$E48)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 53) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 53) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A49:$E49)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 54) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 54) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A50:$E50)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 55) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 55) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A51:$E51)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 56) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 56) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A52:$E52)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 57) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 57) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A53:$E53)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 58) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 58) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A54:$E54)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 59) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 59) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A55:$E55)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 61) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 61) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A56:$E56)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 62) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 62) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A57:$E57)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 63) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 63) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A58:$E58)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 64) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 64) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A59:$E59)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 65) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 65) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A60:$E60)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 66) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 66) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A61:$E61)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 67) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 67) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A62:$E62)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 68) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 68) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A63:$E63)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 69) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 69) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A64:$E64)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 71) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 71) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A65:$E65)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 72) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 72) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A66:$E66)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 73) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 73) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A67:$E67)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 74) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 74) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A68:$E68)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 75) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 75) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A69:$E69)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 76) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 76) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A70:$E70)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 77) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 77) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A71:$E71)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 78) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 78) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A72:$E72)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 79) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 79) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A73:$E73)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 81) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 81) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A74:$E74)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 82) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 82) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A75:$E75)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 83) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 83) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A76:$E76)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 84) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 84) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A77:$E77)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 85) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 85) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A78:$E78)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 86) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 86) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A79:$E79)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 87) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 87) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A80:$E80)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 88) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 88) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A81:$E81)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 89) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 89) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A82:$E82)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 91) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 91) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A83:$E83)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 92) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 92) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A84:$E84)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 93) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 93) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A85:$E85)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 94) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 94) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A86:$E86)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 95) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 95) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A87:$E87)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 96) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 96) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A88:$E88)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 97) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 97) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A89:$E89)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 98) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 98) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A90:$E90)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 99) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 99) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A91:$E91)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 101) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 101) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A92:$E92)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 102) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 102) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A93:$E93)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 103) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 103) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A94:$E94)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 104) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 104) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A95:$E95)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 105) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 105) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A96:$E96)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 106) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 106) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A97:$E97)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 107) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 107) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A98:$E98)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 108) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 108) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A99:$E99)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 109) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 109) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A100:$E100)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 111) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 111) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A101:$E101)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 112) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 112) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A102:$E102)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 113) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 113) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A103:$E103)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 114) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 114) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A104:$E104)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 115) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 115) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A105:$E105)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 116) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 116) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A106:$E106)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 117) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 117) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A107:$E107)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 118) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 118) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A108:$E108)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 119) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 119) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A109:$E109)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 121) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 121) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A110:$E110)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 122) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 122) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A111:$E111)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 123) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 123) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A112:$E112)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 124) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 124) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A113:$E113)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 125) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 125) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A114:$E114)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 126) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 126) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A115:$E115)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 127) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 127) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A116:$E116)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 128) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 128) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A117:$E117)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 129) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 129) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A118:$E118)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 131) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 131) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A119:$E119)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 132) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 132) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A120:$E120)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 133) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 133) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A121:$E121)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 134) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 134) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A122:$E122)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 135) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 135) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A123:$E123)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 136) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 136) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A124:$E124)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 137) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 137) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A125:$E125)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 138) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 138) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A126:$E126)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 139) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 139) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A127:$E127)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 141) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 141) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A128:$E128)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 142) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 142) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A129:$E129)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 143) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 143) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A130:$E130)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 144) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 144) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A131:$E131)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 145) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 145) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A132:$E132)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 146) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 146) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A133:$E133)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 147) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 147) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A134:$E134)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 148) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 148) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A135:$E135)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 149) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 149) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A136:$E136)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 151) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 151) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A137:$E137)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 152) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 152) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A138:$E138)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 153) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 153) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A139:$E139)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 154) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 154) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A140:$E140)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 155) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 155) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A141:$E141)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 156) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 156) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A142:$E142)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 157) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 157) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A143:$E143)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 158) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 158) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A144:$E144)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 159) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 159) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A145:$E145)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 161) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 161) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A146:$E146)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 162) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 162) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A147:$E147)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 163) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 163) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A148:$E148)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 164) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 164) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A149:$E149)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 165) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 165) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A150:$E150)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 166) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 166) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A151:$E151)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 167) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 167) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A152:$E152)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 168) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 168) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A153:$E153)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 169) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 169) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A154:$E154)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 171) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 171) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A155:$E155)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 172) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 172) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A156:$E156)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 173) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 173) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A157:$E157)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 174) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 174) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A158:$E158)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 175) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 175) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A159:$E159)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 176) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 176) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A160:$E160)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 177) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 177) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A161:$E161)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 178) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 178) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A162:$E162)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 179) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 179) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A163:$E163)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 181) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 181) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A164:$E164)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 182) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 182) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A165:$E165)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 183) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 183) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A166:$E166)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 184) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 184) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A167:$E167)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 185) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 185) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A168:$E168)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 186) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 186) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A169:$E169)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 187) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 187) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A170:$E170)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 188) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 188) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A171:$E171)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 189) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 189) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A172:$E172)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 191) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 191) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A173:$E173)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 192) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 192) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A174:$E174)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 193) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 193) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A175:$E175)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 194) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 194) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A176:$E176)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 195) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 195) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A177:$E177)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 196) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 196) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A178:$E178)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 197) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 197) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A179:$E179)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 198) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 198) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A180:$E180)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 199) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 199) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A181:$E181)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 201) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 201) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A182:$E182)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 202) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 202) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A183:$E183)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 203) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 203) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A184:$E184)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 204) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 204) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A185:$E185)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 205) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 205) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A186:$E186)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 206) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 206) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A187:$E187)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 207) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 207) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A188:$E188)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 208) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 208) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A189:$E189)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 209) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 209) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A190:$E190)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 211) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 211) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A191:$E191)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 212) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 212) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A192:$E192)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 213) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 213) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A193:$E193)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 214) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 214) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A194:$E194)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 215) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 215) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A195:$E195)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 216) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 216) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A196:$E196)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 217) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 217) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A197:$E197)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 218) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 218) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f>_xlfn.CONCAT(Sheet1!$A198:$E198)</f>
-        <v>CREATE EDGE RIDES_FOR FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 219) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
+        <v>CREATE EDGE TAKES_PART_IN FROM (SELECT FROM Rider WHERE RIDER_NUMBER = 219) TO (SELECT FROM Race WHERE RACE_ID = 1);</v>
       </c>
     </row>
   </sheetData>
